--- a/excel/PM10.xlsx
+++ b/excel/PM10.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\web-heat-map\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FFC04-EF8E-496D-B255-C9E09C9F6AF0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2955" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="3795" yWindow="2955" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="353">
   <si>
     <t>城市</t>
   </si>
@@ -1077,10 +1078,6 @@
   </si>
   <si>
     <t>三亚</t>
-  </si>
-  <si>
-    <t>MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LATB</t>
@@ -1092,7 +1089,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1459,11 +1456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I320"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="I320" sqref="A320:I320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1495,10 +1492,10 @@
         <v>2017</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10583,31 +10580,6 @@
       </c>
       <c r="I319">
         <v>109.51855999999999</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="A320" t="s">
-        <v>351</v>
-      </c>
-      <c r="C320">
-        <f>MAX(C2:C319)</f>
-        <v>309</v>
-      </c>
-      <c r="D320">
-        <f t="shared" ref="D320:G320" si="0">MAX(D2:D319)</f>
-        <v>235</v>
-      </c>
-      <c r="E320">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="F320">
-        <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
-      <c r="G320">
-        <f t="shared" si="0"/>
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/excel/PM10.xlsx
+++ b/excel/PM10.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\web-heat-map\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/files/code/web-heat-map/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FFC04-EF8E-496D-B255-C9E09C9F6AF0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2955" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7960" yWindow="-15820" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1089,8 +1091,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,20 +1458,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="I320" sqref="A320:I320"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>114.54563</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>114.521529</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1587,7 @@
         <v>114.511459</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1616,7 @@
         <v>115.67540200000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>115.47145999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>118.186463</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>116.84558</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>116.690577</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>117.969396</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>114.892574</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1814,7 +1816,7 @@
         <v>119.60853400000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>113.248549</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>114.399503</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1892,7 +1894,7 @@
         <v>115.662449</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>112.459424</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1950,7 +1952,7 @@
         <v>114.303591</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>113.631416</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>114.023419</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>113.93359700000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>112.534504</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>115.03559300000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2124,7 +2126,7 @@
         <v>114.02846700000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>113.199529</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>114.314595</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>114.703481</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2240,7 +2242,7 @@
         <v>111.20653</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>113.85847200000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2298,7 +2300,7 @@
         <v>114.09748399999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>112.55639600000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>111.013385</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2385,7 +2387,7 @@
         <v>112.858577</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>113.587615</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>112.74062000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>112.759593</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>111.15044899999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>113.122562</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>112.439374</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>113.30643600000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>111.525527</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>115.99158799999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>115.487549</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>117.12639900000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>117.330539</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2759,7 +2761,7 @@
         <v>116.36555300000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>118.061455</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2817,7 +2819,7 @@
         <v>117.68354600000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>118.36353699999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>117.9774</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -2892,7 +2894,7 @@
         <v>118.588463</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>117.094492</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>116.593614</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>119.168374</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -3008,7 +3010,7 @@
         <v>119.533418</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3037,7 +3039,7 @@
         <v>120.389458</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -3066,7 +3068,7 @@
         <v>121.45441700000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -3095,7 +3097,7 @@
         <v>122.127545</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -3124,7 +3126,7 @@
         <v>109.516593</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -3153,7 +3155,7 @@
         <v>108.946465</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>108.952403</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>107.029427</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>109.924415</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>107.24457200000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>108.71542100000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -3321,7 +3323,7 @@
         <v>106.238496</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3350,7 +3352,7 @@
         <v>105.203568</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -3376,7 +3378,7 @@
         <v>106.205367</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -3402,7 +3404,7 @@
         <v>106.390597</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>117.20952</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>115.82043400000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -3489,7 +3491,7 @@
         <v>117.00638600000001</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -3518,7 +3520,7 @@
         <v>115.78446599999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>116.804536</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -3576,7 +3578,7 @@
         <v>117.39551400000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -3593,7 +3595,7 @@
         <v>116.97054300000001</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>117.498424</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>117.81848100000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3680,7 +3682,7 @@
         <v>118.513581</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>118.33940800000001</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -3738,7 +3740,7 @@
         <v>118.439435</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -3767,7 +3769,7 @@
         <v>117.063608</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>116.52641199999999</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>117.233441</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -3854,7 +3856,7 @@
         <v>118.76553699999999</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>118.16808899999999</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>87.624437999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>81.330541999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>93.523139</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>87.286033000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>84.895898000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4054,7 +4056,7 @@
         <v>103.840524</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>102.194603</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>98.296199999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4141,7 +4143,7 @@
         <v>98.500681</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4170,7 +4172,7 @@
         <v>104.144447</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4199,7 +4201,7 @@
         <v>100.45640899999999</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -4228,7 +4230,7 @@
         <v>102.64455599999999</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -4257,7 +4259,7 @@
         <v>106.67144399999999</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -4286,7 +4288,7 @@
         <v>104.63241600000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -4315,7 +4317,7 @@
         <v>104.928578</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>91.140507999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -4367,7 +4369,7 @@
         <v>105.731421</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -4396,7 +4398,7 @@
         <v>116.413387</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -4425,7 +4427,7 @@
         <v>117.29057400000001</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -4454,7 +4456,7 @@
         <v>119.41942299999999</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>119.43049000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>119.021483</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>120.31858200000001</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>120.167541</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -4628,7 +4630,7 @@
         <v>118.281575</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>118.80242200000001</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -4686,7 +4688,7 @@
         <v>119.228623</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -4715,7 +4717,7 @@
         <v>119.98148399999999</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -4744,7 +4746,7 @@
         <v>120.592412</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -4773,7 +4775,7 @@
         <v>120.901591</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -4802,7 +4804,7 @@
         <v>112.245519</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -4831,7 +4833,7 @@
         <v>112.128533</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>114.31158600000001</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -4889,7 +4891,7 @@
         <v>111.292552</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>115.045529</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -4944,7 +4946,7 @@
         <v>114.901611</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>114.878489</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>112.206389</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -5031,7 +5033,7 @@
         <v>113.922512</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>113.389448</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>110.804529</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>114.328519</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>109.49459299999999</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -5176,7 +5178,7 @@
         <v>123.00137100000001</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -5205,7 +5207,7 @@
         <v>123.455986</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -5234,7 +5236,7 @@
         <v>123.732367</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>123.24336599999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -5292,7 +5294,7 @@
         <v>123.96437299999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>121.676407</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -5350,7 +5352,7 @@
         <v>120.84339900000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -5379,7 +5381,7 @@
         <v>121.132599</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>120.45749600000001</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -5437,7 +5439,7 @@
         <v>123.69251</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>157</v>
       </c>
@@ -5466,7 +5468,7 @@
         <v>122.241575</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>122.07749099999999</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -5524,7 +5526,7 @@
         <v>124.36154999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>160</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>121.621628</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -5582,7 +5584,7 @@
         <v>110.00851400000001</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>163</v>
       </c>
@@ -5611,7 +5613,7 @@
         <v>113.140474</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>112.950464</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>165</v>
       </c>
@@ -5660,7 +5662,7 @@
         <v>111.47443199999999</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>166</v>
       </c>
@@ -5689,7 +5691,7 @@
         <v>112.36151700000001</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>111.705449</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -5747,7 +5749,7 @@
         <v>109.74558</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -5776,7 +5778,7 @@
         <v>113.135488</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>170</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>113.021458</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>171</v>
       </c>
@@ -5834,7 +5836,7 @@
         <v>112.94547</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>172</v>
       </c>
@@ -5863,7 +5865,7 @@
         <v>112.57844900000001</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>173</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>111.619454</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>110.48553200000001</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>175</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>112.001503</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>176</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>106.80039499999999</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>178</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>109.84654</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>179</v>
       </c>
@@ -6037,7 +6039,7 @@
         <v>111.755512</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>180</v>
       </c>
@@ -6066,7 +6068,7 @@
         <v>107.3944</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>181</v>
       </c>
@@ -6083,7 +6085,7 @@
         <v>105.735373</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>182</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>118.895522</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>183</v>
       </c>
@@ -6141,7 +6143,7 @@
         <v>109.787441</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>184</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>122.250523</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>185</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>113.13946799999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>186</v>
       </c>
@@ -6228,7 +6230,7 @@
         <v>116.054388</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>187</v>
       </c>
@@ -6257,7 +6259,7 @@
         <v>122.04436099999999</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>188</v>
       </c>
@@ -6286,7 +6288,7 @@
         <v>119.772367</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>189</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>113.86149899999999</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -6344,7 +6346,7 @@
         <v>114.92353900000001</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -6373,7 +6375,7 @@
         <v>115.86458500000001</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -6419,7 +6421,7 @@
         <v>117.94946299999999</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -6448,7 +6450,7 @@
         <v>115.000514</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -6477,7 +6479,7 @@
         <v>114.94050799999999</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -6506,7 +6508,7 @@
         <v>116.007533</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -6535,7 +6537,7 @@
         <v>117.184574</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -6564,7 +6566,7 @@
         <v>116.364537</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -6593,7 +6595,7 @@
         <v>117.07557300000001</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>106.558437</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -6651,7 +6653,7 @@
         <v>104.78444500000001</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>204</v>
       </c>
@@ -6680,7 +6682,7 @@
         <v>104.08153</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>205</v>
       </c>
@@ -6709,7 +6711,7 @@
         <v>104.404417</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>206</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>103.77254000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>207</v>
       </c>
@@ -6767,7 +6769,7 @@
         <v>104.63443700000001</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>208</v>
       </c>
@@ -6796,7 +6798,7 @@
         <v>103.856567</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>209</v>
       </c>
@@ -6825,7 +6827,7 @@
         <v>105.448526</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>210</v>
       </c>
@@ -6854,7 +6856,7 @@
         <v>104.64940300000001</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>211</v>
       </c>
@@ -6883,7 +6885,7 @@
         <v>107.474592</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>212</v>
       </c>
@@ -6912,7 +6914,7 @@
         <v>106.639554</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>213</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>106.117504</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>214</v>
       </c>
@@ -6970,7 +6972,7 @@
         <v>104.68556</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>105.06459099999999</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>216</v>
       </c>
@@ -7028,7 +7030,7 @@
         <v>103.049539</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -7057,7 +7059,7 @@
         <v>101.725544</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>218</v>
       </c>
@@ -7086,7 +7088,7 @@
         <v>105.599424</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -7115,7 +7117,7 @@
         <v>105.850419</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -7144,7 +7146,7 @@
         <v>106.751582</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -7173,7 +7175,7 @@
         <v>102.27350199999999</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>102.231416</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -7231,7 +7233,7 @@
         <v>101.96854500000001</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -7260,7 +7262,7 @@
         <v>101.781853</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
@@ -7289,7 +7291,7 @@
         <v>101.784446</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>227</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>93.340123000000006</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>228</v>
       </c>
@@ -7347,7 +7349,7 @@
         <v>100.61898600000001</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>229</v>
       </c>
@@ -7376,7 +7378,7 @@
         <v>100.25159600000001</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>230</v>
       </c>
@@ -7405,7 +7407,7 @@
         <v>102.026543</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>231</v>
       </c>
@@ -7434,7 +7436,7 @@
         <v>100.90973700000001</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>232</v>
       </c>
@@ -7463,7 +7465,7 @@
         <v>101.78344</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>233</v>
       </c>
@@ -7492,7 +7494,7 @@
         <v>124.356483</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>234</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>126.555634</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>235</v>
       </c>
@@ -7550,7 +7552,7 @@
         <v>125.330606</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>236</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>124.83148</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>237</v>
       </c>
@@ -7599,7 +7601,7 @@
         <v>126.42962799999999</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>238</v>
       </c>
@@ -7628,7 +7630,7 @@
         <v>125.94661000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>239</v>
       </c>
@@ -7657,7 +7659,7 @@
         <v>125.150423</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>240</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>122.84558699999999</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>241</v>
       </c>
@@ -7715,7 +7717,7 @@
         <v>129.477372</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>242</v>
       </c>
@@ -7744,7 +7746,7 @@
         <v>126.541611</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>131.01154399999999</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -7802,7 +7804,7 @@
         <v>130.97561999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -7831,7 +7833,7 @@
         <v>123.92456900000001</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -7860,7 +7862,7 @@
         <v>129.639544</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -7889,7 +7891,7 @@
         <v>130.30443299999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -7918,7 +7920,7 @@
         <v>126.975358</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>131.16534200000001</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -7976,7 +7978,7 @@
         <v>125.108661</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>130.327358</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>127.535487</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>128.847544</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -8086,7 +8088,7 @@
         <v>124.15292700000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -8115,7 +8117,7 @@
         <v>120.21550999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>258</v>
       </c>
@@ -8144,7 +8146,7 @@
         <v>120.763549</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>259</v>
       </c>
@@ -8173,7 +8175,7 @@
         <v>120.706479</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>260</v>
       </c>
@@ -8202,7 +8204,7 @@
         <v>120.09451799999999</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>261</v>
       </c>
@@ -8231,7 +8233,7 @@
         <v>118.866597</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>262</v>
       </c>
@@ -8260,7 +8262,7 @@
         <v>120.585477</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>263</v>
       </c>
@@ -8289,7 +8291,7 @@
         <v>121.62857200000001</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>264</v>
       </c>
@@ -8318,7 +8320,7 @@
         <v>121.427432</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>265</v>
       </c>
@@ -8347,7 +8349,7 @@
         <v>119.653441</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>266</v>
       </c>
@@ -8376,7 +8378,7 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>267</v>
       </c>
@@ -8405,7 +8407,7 @@
         <v>122.21355699999999</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>268</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>109.22745500000001</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>270</v>
       </c>
@@ -8463,7 +8465,7 @@
         <v>109.60551599999999</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>271</v>
       </c>
@@ -8492,7 +8494,7 @@
         <v>109.434425</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>272</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>111.57352400000001</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>273</v>
       </c>
@@ -8550,7 +8552,7 @@
         <v>106.624588</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>274</v>
       </c>
@@ -8579,7 +8581,7 @@
         <v>108.091503</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>275</v>
       </c>
@@ -8608,7 +8610,7 @@
         <v>110.20354500000001</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>276</v>
       </c>
@@ -8637,7 +8639,7 @@
         <v>111.285518</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>277</v>
       </c>
@@ -8666,7 +8668,7 @@
         <v>110.188453</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>278</v>
       </c>
@@ -8695,7 +8697,7 @@
         <v>108.373454</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>279</v>
       </c>
@@ -8724,7 +8726,7 @@
         <v>108.66058</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>280</v>
       </c>
@@ -8741,7 +8743,7 @@
         <v>107.37152</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>281</v>
       </c>
@@ -8770,7 +8772,7 @@
         <v>108.36042</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>282</v>
       </c>
@@ -8799,7 +8801,7 @@
         <v>109.126531</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>283</v>
       </c>
@@ -8828,7 +8830,7 @@
         <v>121.48054</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>284</v>
       </c>
@@ -8857,7 +8859,7 @@
         <v>109.18743600000001</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>286</v>
       </c>
@@ -8886,7 +8888,7 @@
         <v>104.837553</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>287</v>
       </c>
@@ -8915,7 +8917,7 @@
         <v>106.933426</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>288</v>
       </c>
@@ -8944,7 +8946,7 @@
         <v>106.63658</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>289</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>105.31158000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>290</v>
       </c>
@@ -9002,7 +9004,7 @@
         <v>107.989447</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>291</v>
       </c>
@@ -9031,7 +9033,7 @@
         <v>105.95441599999999</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>292</v>
       </c>
@@ -9060,7 +9062,7 @@
         <v>113.12850899999999</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>294</v>
       </c>
@@ -9089,7 +9091,7 @@
         <v>113.08855200000001</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>295</v>
       </c>
@@ -9118,7 +9120,7 @@
         <v>112.051512</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>296</v>
       </c>
@@ -9147,7 +9149,7 @@
         <v>112.47148799999999</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>297</v>
       </c>
@@ -9176,7 +9178,7 @@
         <v>113.271429</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>298</v>
       </c>
@@ -9205,7 +9207,7 @@
         <v>116.37851499999999</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>299</v>
       </c>
@@ -9234,7 +9236,7 @@
         <v>113.60352399999999</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>300</v>
       </c>
@@ -9263,7 +9265,7 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>301</v>
       </c>
@@ -9292,7 +9294,7 @@
         <v>113.75841800000001</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>302</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>116.129541</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>303</v>
       </c>
@@ -9350,7 +9352,7 @@
         <v>110.931541</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>304</v>
       </c>
@@ -9379,7 +9381,7 @@
         <v>116.62946599999999</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>305</v>
       </c>
@@ -9408,7 +9410,7 @@
         <v>113.39942000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>306</v>
       </c>
@@ -9437,7 +9439,7 @@
         <v>116.688529</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>307</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>111.98848700000001</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>308</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>114.707442</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>309</v>
       </c>
@@ -9524,7 +9526,7 @@
         <v>113.062465</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>310</v>
       </c>
@@ -9553,7 +9555,7 @@
         <v>114.06455200000001</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>311</v>
       </c>
@@ -9582,7 +9584,7 @@
         <v>113.58255699999999</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>312</v>
       </c>
@@ -9611,7 +9613,7 @@
         <v>115.38154900000001</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>313</v>
       </c>
@@ -9640,7 +9642,7 @@
         <v>110.365554</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>314</v>
       </c>
@@ -9660,7 +9662,7 @@
         <v>117.65357899999999</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>316</v>
       </c>
@@ -9689,7 +9691,7 @@
         <v>118.682444</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>317</v>
       </c>
@@ -9718,7 +9720,7 @@
         <v>119.30347</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>318</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>118.096435</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>319</v>
       </c>
@@ -9776,7 +9778,7 @@
         <v>119.014521</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>320</v>
       </c>
@@ -9805,7 +9807,7 @@
         <v>117.645521</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>321</v>
       </c>
@@ -9834,7 +9836,7 @@
         <v>119.55450999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>322</v>
       </c>
@@ -9863,7 +9865,7 @@
         <v>117.023445</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>323</v>
       </c>
@@ -9892,7 +9894,7 @@
         <v>118.18437</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>324</v>
       </c>
@@ -9921,7 +9923,7 @@
         <v>91.134439999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>326</v>
       </c>
@@ -9950,7 +9952,7 @@
         <v>91.120823000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>327</v>
       </c>
@@ -9979,7 +9981,7 @@
         <v>97.174824999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>328</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>88.902951999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>329</v>
       </c>
@@ -10037,7 +10039,7 @@
         <v>91.778678999999997</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>330</v>
       </c>
@@ -10066,7 +10068,7 @@
         <v>94.362050999999994</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>331</v>
       </c>
@@ -10095,7 +10097,7 @@
         <v>80.112780999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>332</v>
       </c>
@@ -10124,7 +10126,7 @@
         <v>102.852451</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>334</v>
       </c>
@@ -10153,7 +10155,7 @@
         <v>103.72351</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>335</v>
       </c>
@@ -10182,7 +10184,7 @@
         <v>103.802436</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>336</v>
       </c>
@@ -10211,7 +10213,7 @@
         <v>103.381552</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>337</v>
       </c>
@@ -10240,7 +10242,7 @@
         <v>100.803443</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>338</v>
       </c>
@@ -10269,7 +10271,7 @@
         <v>98.591356000000005</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>339</v>
       </c>
@@ -10298,7 +10300,7 @@
         <v>100.981165</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>340</v>
       </c>
@@ -10327,7 +10329,7 @@
         <v>98.863291000000004</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>341</v>
       </c>
@@ -10356,7 +10358,7 @@
         <v>101.534412</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>342</v>
       </c>
@@ -10385,7 +10387,7 @@
         <v>100.095443</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>343</v>
       </c>
@@ -10414,7 +10416,7 @@
         <v>104.222573</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>344</v>
       </c>
@@ -10443,7 +10445,7 @@
         <v>99.177276000000006</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>345</v>
       </c>
@@ -10472,7 +10474,7 @@
         <v>99.709530999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>346</v>
       </c>
@@ -10501,7 +10503,7 @@
         <v>100.27458300000001</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>347</v>
       </c>
@@ -10530,7 +10532,7 @@
         <v>100.232462</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>348</v>
       </c>
@@ -10559,7 +10561,7 @@
         <v>110.325526</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>350</v>
       </c>
@@ -10585,6 +10587,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>